--- a/IDリスト.xlsx
+++ b/IDリスト.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C0116051\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c0116278ba\Documents\EarthInvation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>動かない地形</t>
   </si>
@@ -108,6 +108,24 @@
   </si>
   <si>
     <t>エイリアンレーザー</t>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一般兵</t>
+    <rPh sb="0" eb="3">
+      <t>イッパンヘイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ベテラン兵</t>
+    <rPh sb="4" eb="5">
+      <t>ヘイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -210,19 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -236,6 +242,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -519,405 +537,417 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="11.25" style="10" customWidth="1"/>
+    <col min="1" max="8" width="11.25" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
-      <c r="A2" s="6">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="6">
+      <c r="C2" s="8"/>
+      <c r="D2" s="2">
         <v>20</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="6">
+      <c r="F2" s="1"/>
+      <c r="G2" s="2">
         <v>40</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
-      <c r="A3" s="6">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="6">
+      <c r="C3" s="8"/>
+      <c r="D3" s="2">
         <v>21</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="6">
+      <c r="F3" s="1"/>
+      <c r="G3" s="2">
         <v>41</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
-      <c r="A4" s="6">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="6">
+      <c r="C4" s="8"/>
+      <c r="D4" s="2">
         <v>22</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="6">
+      <c r="F4" s="8"/>
+      <c r="G4" s="2">
         <v>42</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
-      <c r="A5" s="6">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="6">
+      <c r="C5" s="1"/>
+      <c r="D5" s="2">
         <v>23</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="6">
+      <c r="F5" s="1"/>
+      <c r="G5" s="2">
         <v>43</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
-      <c r="A6" s="6">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="6">
+      <c r="C6" s="1"/>
+      <c r="D6" s="2">
         <v>24</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="6">
+      <c r="F6" s="1"/>
+      <c r="G6" s="2">
         <v>44</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
-      <c r="A7" s="6">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="6">
+      <c r="C7" s="1"/>
+      <c r="D7" s="2">
         <v>25</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="6">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2">
         <v>45</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
-      <c r="A8" s="6">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="6">
+      <c r="C8" s="1"/>
+      <c r="D8" s="2">
         <v>26</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="6">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2">
         <v>46</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
-      <c r="A9" s="6">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="6">
+      <c r="C9" s="1"/>
+      <c r="D9" s="2">
         <v>27</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="6">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2">
         <v>47</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
-      <c r="A10" s="6">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="6">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2">
         <v>28</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="6">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2">
         <v>48</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
-      <c r="A11" s="6">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="6">
+      <c r="C11" s="8"/>
+      <c r="D11" s="2">
         <v>29</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="6">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2">
         <v>49</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="1" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
-      <c r="A13" s="6">
+      <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="6">
+      <c r="C13" s="1"/>
+      <c r="D13" s="2">
         <v>30</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="8">
+      <c r="F13" s="1"/>
+      <c r="G13" s="4">
         <v>99</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
-      <c r="A14" s="6">
+      <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="6">
+      <c r="C14" s="8"/>
+      <c r="D14" s="2">
         <v>31</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
-      <c r="A15" s="6">
+      <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="6">
+      <c r="C15" s="1"/>
+      <c r="D15" s="2">
         <v>32</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
-      <c r="A16" s="6">
+      <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="6">
+      <c r="C16" s="1"/>
+      <c r="D16" s="2">
         <v>33</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
+        <v>100</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
-      <c r="A17" s="6">
+      <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="6">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2">
         <v>34</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
+        <v>104</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
-      <c r="A18" s="6">
+      <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="6">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2">
         <v>35</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1">
+        <v>105</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
-      <c r="A19" s="6">
+      <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="6">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2">
         <v>36</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
-      <c r="A20" s="6">
+      <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="6">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2">
         <v>37</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
-      <c r="A21" s="6">
+      <c r="A21" s="2">
         <v>18</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="6">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2">
         <v>38</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
-      <c r="A22" s="6">
+      <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="6">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2">
         <v>39</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IDリスト.xlsx
+++ b/IDリスト.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c0116278ba\Documents\EarthInvation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C0116051\Documents\Visual Studio 2017\Projects\地球侵略\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>動かない地形</t>
   </si>
@@ -122,6 +122,20 @@
   </si>
   <si>
     <t>ベテラン兵</t>
+    <rPh sb="4" eb="5">
+      <t>ヘイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>爺</t>
+    <rPh sb="0" eb="1">
+      <t>ジジイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロボット兵</t>
     <rPh sb="4" eb="5">
       <t>ヘイ</t>
     </rPh>
@@ -242,16 +256,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -537,7 +551,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" customHeight="1"/>
@@ -546,29 +560,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="10"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="2">
         <v>20</v>
       </c>
@@ -579,16 +593,18 @@
       <c r="G2" s="2">
         <v>40</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="2">
         <v>21</v>
       </c>
@@ -599,23 +615,25 @@
       <c r="G3" s="2">
         <v>41</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="2">
         <v>22</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="2">
         <v>42</v>
       </c>
@@ -735,10 +753,10 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="2">
         <v>29</v>
       </c>
@@ -750,15 +768,15 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -789,10 +807,10 @@
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="2">
         <v>31</v>
       </c>
@@ -937,17 +955,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IDリスト.xlsx
+++ b/IDリスト.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C0116051\Documents\Visual Studio 2017\Projects\地球侵略\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C0116051\MyDocuments\Visual Studio 2017\Projects\地球侵略\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>動かない地形</t>
   </si>
@@ -138,6 +139,45 @@
     <t>ロボット兵</t>
     <rPh sb="4" eb="5">
       <t>ヘイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>警告ブロック</t>
+    <rPh sb="0" eb="2">
+      <t>ケイコク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イメージなし</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>地形拡張</t>
+    <rPh sb="0" eb="2">
+      <t>チケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ガラス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>柵</t>
+    <rPh sb="0" eb="1">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>柵ハーフ</t>
+    <rPh sb="0" eb="1">
+      <t>サク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -175,12 +215,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -238,7 +284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -256,6 +302,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -548,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" customHeight="1"/>
@@ -559,30 +614,30 @@
     <col min="1" max="8" width="11.25" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" ht="11.5" customHeight="1" thickBot="1">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10"/>
+      <c r="E1" s="13"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" ht="11.5" customHeight="1" thickBot="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="2">
         <v>20</v>
       </c>
@@ -597,14 +652,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
+    <row r="3" spans="1:10" ht="11.5" customHeight="1" thickBot="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="2">
         <v>21</v>
       </c>
@@ -619,27 +674,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
+    <row r="4" spans="1:10" ht="11.5" customHeight="1" thickBot="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="2">
         <v>22</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="2">
         <v>42</v>
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:10" ht="11.5" customHeight="1" thickBot="1">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -659,7 +714,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
+    <row r="6" spans="1:10" ht="11.5" customHeight="1" thickBot="1">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -679,7 +734,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
+    <row r="7" spans="1:10" ht="11.5" customHeight="1" thickBot="1">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -697,7 +752,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
+    <row r="8" spans="1:10" ht="11.5" customHeight="1" thickBot="1">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -715,7 +770,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
+    <row r="9" spans="1:10" ht="11.5" customHeight="1" thickBot="1">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -733,12 +788,16 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
+    <row r="10" spans="1:10" ht="11.5" customHeight="1" thickBot="1">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="D10" s="2">
         <v>28</v>
       </c>
@@ -749,14 +808,14 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
+    <row r="11" spans="1:10" ht="11.5" customHeight="1" thickBot="1">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="2">
         <v>29</v>
       </c>
@@ -767,21 +826,23 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:10" ht="11.5" customHeight="1" thickBot="1">
+      <c r="A12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
+      <c r="G12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" ht="11.5" customHeight="1" thickBot="1">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -796,21 +857,27 @@
         <v>20</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="4">
+      <c r="G13" s="1">
+        <v>50</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="4">
         <v>99</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
+    <row r="14" spans="1:10" ht="11.5" customHeight="1" thickBot="1">
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="2">
         <v>31</v>
       </c>
@@ -818,10 +885,16 @@
         <v>23</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
+      <c r="G14" s="1">
+        <v>51</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="11.5" customHeight="1" thickBot="1">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -834,14 +907,20 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="1">
+        <v>52</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="J15" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
+    <row r="16" spans="1:10" ht="11.5" customHeight="1" thickBot="1">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -855,13 +934,17 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
+        <v>53</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1">
         <v>100</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
+    <row r="17" spans="1:10" ht="11.5" customHeight="1" thickBot="1">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -873,13 +956,17 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
+        <v>54</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1">
         <v>104</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
+    <row r="18" spans="1:10" ht="11.5" customHeight="1" thickBot="1">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -891,13 +978,17 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
+        <v>55</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1">
         <v>105</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
+    <row r="19" spans="1:10" ht="11.5" customHeight="1" thickBot="1">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -908,10 +999,14 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <v>56</v>
+      </c>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" ht="11.5" customHeight="1" thickBot="1">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -922,10 +1017,12 @@
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>57</v>
+      </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
+    <row r="21" spans="1:10" ht="11.5" customHeight="1" thickBot="1">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -936,10 +1033,12 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1">
+        <v>58</v>
+      </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="11.5" customHeight="1" thickBot="1">
+    <row r="22" spans="1:10" ht="11.5" customHeight="1" thickBot="1">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -950,22 +1049,25 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1">
+        <v>59</v>
+      </c>
       <c r="H22" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
+  <mergeCells count="12">
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IDリスト.xlsx
+++ b/IDリスト.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>動かない地形</t>
   </si>
@@ -179,6 +178,10 @@
     <rPh sb="0" eb="1">
       <t>サク</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Any</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -284,7 +287,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -305,6 +308,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -317,11 +326,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" customHeight="1"/>
@@ -615,29 +624,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="11.5" customHeight="1" thickBot="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13"/>
+      <c r="E1" s="9"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="11"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:10" ht="11.5" customHeight="1" thickBot="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="2">
         <v>20</v>
       </c>
@@ -656,10 +665,10 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="2">
         <v>21</v>
       </c>
@@ -678,17 +687,17 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="2">
         <v>22</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="2">
         <v>42</v>
       </c>
@@ -812,10 +821,10 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="2">
         <v>29</v>
       </c>
@@ -827,20 +836,20 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="11.5" customHeight="1" thickBot="1">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="11.5" customHeight="1" thickBot="1">
       <c r="A13" s="2">
@@ -874,10 +883,10 @@
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="2">
         <v>31</v>
       </c>
@@ -1053,6 +1062,68 @@
         <v>59</v>
       </c>
       <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" s="14" customFormat="1" ht="11.5" customHeight="1" thickBot="1">
+      <c r="G23" s="1">
+        <v>60</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="14" customFormat="1" ht="11.5" customHeight="1" thickBot="1">
+      <c r="G24" s="1">
+        <v>61</v>
+      </c>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:10" s="14" customFormat="1" ht="11.5" customHeight="1" thickBot="1">
+      <c r="G25" s="1">
+        <v>62</v>
+      </c>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:10" s="14" customFormat="1" ht="11.5" customHeight="1" thickBot="1">
+      <c r="G26" s="1">
+        <v>63</v>
+      </c>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:10" s="14" customFormat="1" ht="11.5" customHeight="1" thickBot="1">
+      <c r="G27" s="1">
+        <v>64</v>
+      </c>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:10" s="14" customFormat="1" ht="11.5" customHeight="1" thickBot="1">
+      <c r="G28" s="1">
+        <v>65</v>
+      </c>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:10" s="14" customFormat="1" ht="11.5" customHeight="1" thickBot="1">
+      <c r="G29" s="1">
+        <v>66</v>
+      </c>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:10" s="14" customFormat="1" ht="11.5" customHeight="1" thickBot="1">
+      <c r="G30" s="1">
+        <v>67</v>
+      </c>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="1:10" s="14" customFormat="1" ht="11.5" customHeight="1" thickBot="1">
+      <c r="G31" s="1">
+        <v>68</v>
+      </c>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" spans="1:10" s="14" customFormat="1" ht="11.5" customHeight="1" thickBot="1">
+      <c r="G32" s="1">
+        <v>69</v>
+      </c>
+      <c r="H32" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
